--- a/דוח_מלאי.xlsx
+++ b/דוח_מלאי.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="161">
   <si>
     <t>SKU</t>
   </si>
@@ -67,12 +67,6 @@
     <t>253</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -82,7 +76,7 @@
     <t>345453</t>
   </si>
   <si>
-    <t>373</t>
+    <t>346346</t>
   </si>
   <si>
     <t>535</t>
@@ -94,55 +88,172 @@
     <t>567</t>
   </si>
   <si>
+    <t>5902047174140</t>
+  </si>
+  <si>
+    <t>5902047174142</t>
+  </si>
+  <si>
+    <t>5902047174144</t>
+  </si>
+  <si>
+    <t>5902047174146</t>
+  </si>
+  <si>
+    <t>5902047174148</t>
+  </si>
+  <si>
+    <t>5902047174152</t>
+  </si>
+  <si>
+    <t>5902047174155</t>
+  </si>
+  <si>
+    <t>5902047174156</t>
+  </si>
+  <si>
+    <t>5902047174158</t>
+  </si>
+  <si>
+    <t>5902047174180</t>
+  </si>
+  <si>
+    <t>5902047174182</t>
+  </si>
+  <si>
+    <t>5902047174184</t>
+  </si>
+  <si>
+    <t>5902047174185</t>
+  </si>
+  <si>
+    <t>5902047174186</t>
+  </si>
+  <si>
+    <t>5902047174188</t>
+  </si>
+  <si>
+    <t>5902047174190</t>
+  </si>
+  <si>
+    <t>5902047174192</t>
+  </si>
+  <si>
+    <t>5902047174194</t>
+  </si>
+  <si>
+    <t>5902047174196</t>
+  </si>
+  <si>
+    <t>5902047174198</t>
+  </si>
+  <si>
+    <t>5902047174211</t>
+  </si>
+  <si>
+    <t>5902047174214</t>
+  </si>
+  <si>
+    <t>5902047174217</t>
+  </si>
+  <si>
+    <t>5902047174219</t>
+  </si>
+  <si>
+    <t>5902047174220</t>
+  </si>
+  <si>
+    <t>5902047174221</t>
+  </si>
+  <si>
+    <t>5902047174222</t>
+  </si>
+  <si>
+    <t>5902047174224</t>
+  </si>
+  <si>
+    <t>5902047174226</t>
+  </si>
+  <si>
+    <t>5902047174228</t>
+  </si>
+  <si>
+    <t>5902047174230</t>
+  </si>
+  <si>
+    <t>5902047174232</t>
+  </si>
+  <si>
+    <t>5902047174234</t>
+  </si>
+  <si>
+    <t>5902047174236</t>
+  </si>
+  <si>
+    <t>5902047174238</t>
+  </si>
+  <si>
+    <t>5902047174240</t>
+  </si>
+  <si>
+    <t>5902047174242</t>
+  </si>
+  <si>
+    <t>5902047174244</t>
+  </si>
+  <si>
+    <t>5902047174246</t>
+  </si>
+  <si>
+    <t>5902047174248</t>
+  </si>
+  <si>
+    <t>5902047174250</t>
+  </si>
+  <si>
+    <t>5902047174252</t>
+  </si>
+  <si>
+    <t>5902047174254</t>
+  </si>
+  <si>
+    <t>5902047174256</t>
+  </si>
+  <si>
+    <t>5902047174258</t>
+  </si>
+  <si>
     <t>5902047174261</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>2121</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>2352</t>
-  </si>
-  <si>
-    <t>2355</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>5710840218385</t>
-  </si>
-  <si>
-    <t>5902047172922</t>
-  </si>
-  <si>
-    <t>99</t>
+    <t>5902047174271</t>
+  </si>
+  <si>
+    <t>5902047174274</t>
+  </si>
+  <si>
+    <t>5902047174275</t>
+  </si>
+  <si>
+    <t>5902047174277</t>
+  </si>
+  <si>
+    <t>5902047174279</t>
+  </si>
+  <si>
+    <t>5902047174281</t>
+  </si>
+  <si>
+    <t>5902047174283</t>
+  </si>
+  <si>
+    <t>5902047174285</t>
+  </si>
+  <si>
+    <t>5902047174289</t>
+  </si>
+  <si>
+    <t>5902227174242</t>
   </si>
   <si>
     <t>sdv</t>
@@ -160,12 +271,6 @@
     <t>wbre</t>
   </si>
   <si>
-    <t>gvs</t>
-  </si>
-  <si>
-    <t>hteh</t>
-  </si>
-  <si>
     <t>reg</t>
   </si>
   <si>
@@ -175,7 +280,7 @@
     <t>cntr</t>
   </si>
   <si>
-    <t>hrt</t>
+    <t>rtjrtj</t>
   </si>
   <si>
     <t>shirts</t>
@@ -187,57 +292,33 @@
     <t>hfnh</t>
   </si>
   <si>
+    <t>t-shirt</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>shorts</t>
+  </si>
+  <si>
+    <t>tank top</t>
+  </si>
+  <si>
+    <t>pajamas</t>
+  </si>
+  <si>
+    <t>leggings</t>
+  </si>
+  <si>
+    <t>short dress</t>
+  </si>
+  <si>
     <t>Filter</t>
   </si>
   <si>
-    <t>TTT</t>
-  </si>
-  <si>
-    <t>sdsd</t>
-  </si>
-  <si>
-    <t>Scarlet</t>
-  </si>
-  <si>
-    <t>shirt</t>
-  </si>
-  <si>
-    <t>herhe</t>
-  </si>
-  <si>
-    <t>whwe</t>
-  </si>
-  <si>
-    <t>wbwy</t>
-  </si>
-  <si>
-    <t>Swimwear</t>
-  </si>
-  <si>
-    <t>sbr</t>
-  </si>
-  <si>
-    <t>ehrh</t>
-  </si>
-  <si>
-    <t>shorts</t>
-  </si>
-  <si>
-    <t>jersey</t>
-  </si>
-  <si>
-    <t>tnf</t>
-  </si>
-  <si>
     <t>T-shirt</t>
   </si>
   <si>
-    <t>DARK HORSE</t>
-  </si>
-  <si>
-    <t>rgwg</t>
-  </si>
-  <si>
     <t>sdbwb</t>
   </si>
   <si>
@@ -253,49 +334,34 @@
     <t>webe</t>
   </si>
   <si>
-    <t>wegw</t>
+    <t>erg</t>
+  </si>
+  <si>
+    <t>rbreb</t>
+  </si>
+  <si>
+    <t>hrhfd</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>erg</t>
-  </si>
-  <si>
-    <t>rbreb</t>
-  </si>
-  <si>
-    <t>rtj</t>
-  </si>
-  <si>
     <t>jty</t>
   </si>
   <si>
-    <t>cloths</t>
-  </si>
-  <si>
-    <t>jnrtj</t>
-  </si>
-  <si>
-    <t>clothing</t>
-  </si>
-  <si>
-    <t>bre</t>
-  </si>
-  <si>
-    <t>Swim</t>
-  </si>
-  <si>
-    <t>rshb</t>
-  </si>
-  <si>
-    <t>fdb</t>
-  </si>
-  <si>
-    <t>fgj</t>
-  </si>
-  <si>
-    <t>dfn</t>
+    <t>baby boy</t>
+  </si>
+  <si>
+    <t>baby girls</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>women</t>
   </si>
   <si>
     <t>345.99</t>
@@ -313,12 +379,6 @@
     <t>6.86</t>
   </si>
   <si>
-    <t>325.00</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>345.00</t>
   </si>
   <si>
@@ -328,7 +388,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>65.99</t>
+    <t>346.99</t>
   </si>
   <si>
     <t>45.00</t>
@@ -337,37 +397,25 @@
     <t>12.99</t>
   </si>
   <si>
+    <t>19.90</t>
+  </si>
+  <si>
+    <t>29.90</t>
+  </si>
+  <si>
+    <t>39.90</t>
+  </si>
+  <si>
+    <t>69.90</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
     <t>5.00</t>
   </si>
   <si>
-    <t>21.12</t>
-  </si>
-  <si>
-    <t>11.99</t>
-  </si>
-  <si>
-    <t>18.61</t>
-  </si>
-  <si>
-    <t>355.99</t>
-  </si>
-  <si>
-    <t>5.99</t>
-  </si>
-  <si>
-    <t>4170.60</t>
-  </si>
-  <si>
-    <t>44.99</t>
-  </si>
-  <si>
-    <t>19.99</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>4.99</t>
+    <t>11.90</t>
   </si>
   <si>
     <t>Blue</t>
@@ -379,30 +427,39 @@
     <t>gvew</t>
   </si>
   <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>hrth</t>
+  </si>
+  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
     <t>thr</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>colorful</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
     <t>Silver</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>XL</t>
   </si>
   <si>
@@ -421,22 +478,25 @@
     <t>rht</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>xs</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>xxl</t>
+  </si>
+  <si>
+    <t>xl</t>
   </si>
   <si>
     <t>FOX</t>
   </si>
   <si>
-    <t>FOX-Home</t>
-  </si>
-  <si>
     <t>Haifa</t>
-  </si>
-  <si>
-    <t>Tel-Aviv</t>
   </si>
 </sst>
 </file>
@@ -530,9 +590,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>דוח!B2:B32</c:f>
+              <c:f>דוח!B2:B69</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>sdv</c:v>
                 </c:pt>
@@ -549,92 +609,203 @@
                   <c:v>wbre</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>gvs</c:v>
+                  <c:v>reg</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>hteh</c:v>
+                  <c:v>erh</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>reg</c:v>
+                  <c:v>cntr</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>erh</c:v>
+                  <c:v>rtjrtj</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>cntr</c:v>
+                  <c:v>shirts</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>hrt</c:v>
+                  <c:v>fykf</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>shirts</c:v>
+                  <c:v>hfnh</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>fykf</c:v>
+                  <c:v>t-shirt</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hfnh</c:v>
+                  <c:v>dress</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>dress</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>dress</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>t-shirt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>t-shirt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>shorts</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>shorts</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>shorts</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>pajamas</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>pajamas</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>pajamas</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>leggings</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>leggings</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>leggings</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>leggings</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>leggings</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>leggings</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>t-shirt</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>short dress</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>t-shirt</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>t-shirt</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>t-shirt</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>t-shirt</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>tank top</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>Filter</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>TTT</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>sdsd</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Scarlet</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>shirt</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>herhe</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>whwe</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>wbwy</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Swimwear</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>sbr</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ehrh</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>shorts</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>jersey</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>tnf</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="58">
                   <c:v>T-shirt</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>DARK HORSE</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>rgwg</c:v>
+                <c:pt idx="59">
+                  <c:v>T-shirt</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>T-shirt</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>T-shirt</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>T-shirt</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>T-shirt</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>T-shirt</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>T-shirt</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>T-shirt</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>T-shirt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>דוח!D2:D32</c:f>
+              <c:f>דוח!D2:D69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -651,82 +822,193 @@
                   <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2371</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>253</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>575</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3705</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>529</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1145,22 +1427,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1169,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L2" s="2">
         <v>45799.50298611111</v>
@@ -1183,22 +1465,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1207,10 +1489,10 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L3" s="2">
         <v>45818.49819444444</v>
@@ -1221,22 +1503,22 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1245,10 +1527,10 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L4" s="2">
         <v>45818.49819444444</v>
@@ -1259,22 +1541,22 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L5" s="2">
         <v>45829.45019675926</v>
@@ -1285,22 +1567,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1309,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L6" s="2">
         <v>45780.49537037037</v>
@@ -1323,37 +1605,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D7">
-        <v>2371</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L7" s="2">
-        <v>45769.88483796296</v>
+        <v>45778.71429398148</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1361,37 +1643,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L8" s="2">
-        <v>45777.69719907407</v>
+        <v>45778.51263888889</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1399,37 +1681,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L9" s="2">
-        <v>45778.71429398148</v>
+        <v>45778.51263888889</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1437,37 +1719,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L10" s="2">
-        <v>45778.51263888889</v>
+        <v>45831.92665509259</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1475,37 +1757,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D11">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L11" s="2">
-        <v>45778.51263888889</v>
+        <v>45818.4344212963</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1513,37 +1795,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D12">
-        <v>575</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L12" s="2">
-        <v>45770.62891203703</v>
+        <v>45780.49362268519</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1551,37 +1833,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L13" s="2">
-        <v>45818.4344212963</v>
+        <v>45780.5525</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1589,37 +1871,37 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L14" s="2">
-        <v>45780.49362268519</v>
+        <v>45842.9165625</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1627,37 +1909,37 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L15" s="2">
-        <v>45780.5525</v>
+        <v>45842.61548611111</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1665,37 +1947,37 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D16">
-        <v>457</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L16" s="2">
-        <v>45824.96391203703</v>
+        <v>45831.9800925926</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1703,37 +1985,37 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L17" s="2">
-        <v>45819.73486111111</v>
+        <v>45842.76148148148</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1741,37 +2023,37 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D18">
-        <v>3705</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L18" s="2">
-        <v>45823.76224537037</v>
+        <v>45831.98150462963</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1779,37 +2061,37 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L19" s="2">
-        <v>45832.59175925926</v>
+        <v>45831.98207175926</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1817,37 +2099,37 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D20">
-        <v>529</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L20" s="2">
-        <v>45822.46086805555</v>
+        <v>45831.98329861111</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1855,37 +2137,37 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L21" s="2">
-        <v>45818.49819444444</v>
+        <v>45831.98353009259</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1893,37 +2175,37 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="H22">
         <v>7</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L22" s="2">
-        <v>45818.49819444444</v>
+        <v>45831.98378472222</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1931,37 +2213,37 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J23" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L23" s="2">
-        <v>45806.59511574074</v>
+        <v>45831.97356481481</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1969,37 +2251,37 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L24" s="2">
-        <v>45780.85487268519</v>
+        <v>45831.97081018519</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2007,37 +2289,37 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K25" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L25" s="2">
-        <v>45778.82841435185</v>
+        <v>45842.76164351852</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2045,37 +2327,37 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
         <v>7</v>
       </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L26" s="2">
-        <v>45775.75944444445</v>
+        <v>45831.97274305556</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2083,37 +2365,37 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D27">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>7</v>
       </c>
       <c r="J27" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L27" s="2">
-        <v>45780.85491898148</v>
+        <v>45831.97309027778</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2121,22 +2403,22 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D28">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -2145,13 +2427,13 @@
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L28" s="2">
-        <v>45769.89425925926</v>
+        <v>45831.97332175926</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2159,37 +2441,37 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D29">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L29" s="2">
-        <v>45780.85480324074</v>
+        <v>45831.97758101852</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2197,37 +2479,37 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="H30">
         <v>3</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L30" s="2">
-        <v>45824.96417824074</v>
+        <v>45842.7617824074</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2235,37 +2517,37 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D31">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L31" s="2">
-        <v>45797.49528935185</v>
+        <v>45831.97409722222</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2273,37 +2555,1443 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" s="2">
+        <v>45831.97709490741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" s="2">
+        <v>45831.97733796296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>159</v>
+      </c>
+      <c r="K34" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" s="2">
+        <v>45831.94923611111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" s="2">
+        <v>45831.95253472222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" t="s">
+        <v>160</v>
+      </c>
+      <c r="L36" s="2">
+        <v>45831.95291666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" s="2">
+        <v>45831.95327546296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>159</v>
+      </c>
+      <c r="K38" t="s">
+        <v>160</v>
+      </c>
+      <c r="L38" s="2">
+        <v>45831.95700231481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>159</v>
+      </c>
+      <c r="K39" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39" s="2">
+        <v>45831.95357638889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>159</v>
+      </c>
+      <c r="K40" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40" s="2">
+        <v>45831.9537037037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" s="2">
+        <v>45831.95607638889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>159</v>
+      </c>
+      <c r="K42" t="s">
+        <v>160</v>
+      </c>
+      <c r="L42" s="2">
+        <v>45831.95636574074</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>159</v>
+      </c>
+      <c r="K43" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" s="2">
+        <v>45831.95664351852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>159</v>
+      </c>
+      <c r="K44" t="s">
+        <v>160</v>
+      </c>
+      <c r="L44" s="2">
+        <v>45831.9608912037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>159</v>
+      </c>
+      <c r="K45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" s="2">
+        <v>45831.95731481481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46" t="s">
+        <v>159</v>
+      </c>
+      <c r="K46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L46" s="2">
+        <v>45831.95998842592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47" t="s">
+        <v>160</v>
+      </c>
+      <c r="L47" s="2">
+        <v>45831.96034722222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>159</v>
+      </c>
+      <c r="K48" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48" s="2">
+        <v>45831.960625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>159</v>
+      </c>
+      <c r="K49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L49" s="2">
+        <v>45831.96670138889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>159</v>
+      </c>
+      <c r="K50" t="s">
+        <v>160</v>
+      </c>
+      <c r="L50" s="2">
+        <v>45831.96118055555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>159</v>
+      </c>
+      <c r="K51" t="s">
+        <v>160</v>
+      </c>
+      <c r="L51" s="2">
+        <v>45831.96386574074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" t="s">
+        <v>160</v>
+      </c>
+      <c r="L52" s="2">
+        <v>45831.96414351852</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53" t="s">
+        <v>159</v>
+      </c>
+      <c r="K53" t="s">
+        <v>160</v>
+      </c>
+      <c r="L53" s="2">
+        <v>45831.96638888889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" t="s">
+        <v>158</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>159</v>
+      </c>
+      <c r="K54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54" s="2">
+        <v>45831.97011574074</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55" t="s">
+        <v>160</v>
+      </c>
+      <c r="L55" s="2">
+        <v>45831.96697916667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56" t="s">
+        <v>159</v>
+      </c>
+      <c r="K56" t="s">
+        <v>160</v>
+      </c>
+      <c r="L56" s="2">
+        <v>45831.96930555555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>159</v>
+      </c>
+      <c r="K57" t="s">
+        <v>160</v>
+      </c>
+      <c r="L57" s="2">
+        <v>45831.96954861111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>159</v>
+      </c>
+      <c r="K58" t="s">
+        <v>160</v>
+      </c>
+      <c r="L58" s="2">
+        <v>45831.96986111111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59">
+        <v>457</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" t="s">
+        <v>150</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>159</v>
+      </c>
+      <c r="K59" t="s">
+        <v>160</v>
+      </c>
+      <c r="L59" s="2">
+        <v>45824.96391203703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>7</v>
+      </c>
+      <c r="J60" t="s">
+        <v>159</v>
+      </c>
+      <c r="K60" t="s">
+        <v>160</v>
+      </c>
+      <c r="L60" s="2">
+        <v>45831.9437962963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>159</v>
+      </c>
+      <c r="K61" t="s">
+        <v>160</v>
+      </c>
+      <c r="L61" s="2">
+        <v>45831.94427083333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" t="s">
+        <v>151</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>159</v>
+      </c>
+      <c r="K62" t="s">
+        <v>160</v>
+      </c>
+      <c r="L62" s="2">
+        <v>45831.94452546296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="B63" t="s">
         <v>100</v>
       </c>
-      <c r="F32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32">
-        <v>7</v>
-      </c>
-      <c r="I32">
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="J63" t="s">
+        <v>159</v>
+      </c>
+      <c r="K63" t="s">
+        <v>160</v>
+      </c>
+      <c r="L63" s="2">
+        <v>45831.94486111111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" t="s">
+        <v>158</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>159</v>
+      </c>
+      <c r="K64" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" s="2">
+        <v>45831.94528935185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" t="s">
+        <v>145</v>
+      </c>
+      <c r="G65" t="s">
+        <v>155</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>159</v>
+      </c>
+      <c r="K65" t="s">
+        <v>160</v>
+      </c>
+      <c r="L65" s="2">
+        <v>45831.93386574074</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" t="s">
+        <v>145</v>
+      </c>
+      <c r="G66" t="s">
+        <v>158</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>6</v>
       </c>
-      <c r="J32" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" t="s">
-        <v>140</v>
-      </c>
-      <c r="L32" s="2">
-        <v>45769.8943287037</v>
+      <c r="J66" t="s">
+        <v>159</v>
+      </c>
+      <c r="K66" t="s">
+        <v>160</v>
+      </c>
+      <c r="L66" s="2">
+        <v>45831.94049768519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" t="s">
+        <v>151</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67" t="s">
+        <v>159</v>
+      </c>
+      <c r="K67" t="s">
+        <v>160</v>
+      </c>
+      <c r="L67" s="2">
+        <v>45831.93909722222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>159</v>
+      </c>
+      <c r="K68" t="s">
+        <v>160</v>
+      </c>
+      <c r="L68" s="2">
+        <v>45831.94005787037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" t="s">
+        <v>151</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>159</v>
+      </c>
+      <c r="K69" t="s">
+        <v>160</v>
+      </c>
+      <c r="L69" s="2">
+        <v>45842.62422453704</v>
       </c>
     </row>
   </sheetData>
